--- a/javaprojekt.xlsx
+++ b/javaprojekt.xlsx
@@ -501,7 +501,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -520,111 +520,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -928,7 +823,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +957,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B5" s="25">
         <v>0</v>
@@ -1103,7 +998,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B6" s="25">
         <v>1</v>
@@ -1313,15 +1208,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E24">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:D24">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
